--- a/Packet format.xlsx
+++ b/Packet format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Byte</t>
   </si>
@@ -36,13 +36,68 @@
   </si>
   <si>
     <t>Increment time (uint8_t)</t>
+  </si>
+  <si>
+    <t>Datapoint 1</t>
+  </si>
+  <si>
+    <t>Datapoint 2</t>
+  </si>
+  <si>
+    <t>Datapoint 3</t>
+  </si>
+  <si>
+    <t>Datapoint 4</t>
+  </si>
+  <si>
+    <t>Datapoint 5</t>
+  </si>
+  <si>
+    <t>Datapoint 6</t>
+  </si>
+  <si>
+    <t>Datapoint 7</t>
+  </si>
+  <si>
+    <t>Datapoint 8</t>
+  </si>
+  <si>
+    <t>Datapoint 9</t>
+  </si>
+  <si>
+    <t>Datapoint 10</t>
+  </si>
+  <si>
+    <t>Datapoint 11</t>
+  </si>
+  <si>
+    <t>Datapoint 12</t>
+  </si>
+  <si>
+    <t>Datapoint 13</t>
+  </si>
+  <si>
+    <t>Datapoint 14</t>
+  </si>
+  <si>
+    <t>Datapoint 15</t>
+  </si>
+  <si>
+    <t>Data efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -75,22 +130,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -365,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -376,137 +568,176 @@
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12">
+        <f>COUNTA(B7:B21)/COUNTA(A2:A21)</f>
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
